--- a/data/trans_camb/P15_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_1-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,54</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,2</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>18,81</t>
+          <t>7,17</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,4</t>
+          <t>-0,17; 1,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,25</t>
+          <t>1,11; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,25</t>
+          <t>5,56; 9,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,08</t>
+          <t>-1,37; 0,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,42</t>
+          <t>1,67; 4,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,82</t>
+          <t>5,15; 8,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,19</t>
+          <t>-0,5; 0,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 18,83</t>
+          <t>1,67; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,68</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 3,63</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 8,81</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 20,97</t>
+          <t>5,82; 8,64</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>189,42%</t>
+          <t>202,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>675,91%</t>
+          <t>716,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2600,7%</t>
+          <t>2512,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7322,07%</t>
+          <t>-35,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,28%</t>
+          <t>289,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>299,77%</t>
+          <t>652,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>660,46%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1518,19%</t>
+          <t>376,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>376,74%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1051,58%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2696,45%</t>
+          <t>1027,69%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,65; —</t>
+          <t>-74,21; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,98; —</t>
+          <t>100,44; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>630,91; —</t>
+          <t>567,08; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2119,83; —</t>
+          <t>-83,9; 143,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,29; 84,47</t>
+          <t>82,5; 789,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,56; 799,78</t>
+          <t>269,15; 1527,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>273,07; 1542,24</t>
+          <t>-53,45; 185,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>740,89; 3332,34</t>
+          <t>126,35; 897,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 184,78</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>136,71; 945,7</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>528,34; 2351,32</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1393,82; 5672,05</t>
+          <t>501,79; 2226,9</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>16,57</t>
+          <t>8,86</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,24</t>
+          <t>-0,23; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,69</t>
+          <t>1,64; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 12,9</t>
+          <t>6,57; 11,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 24,07</t>
+          <t>-1,51; 0,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,47</t>
+          <t>1,07; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,51</t>
+          <t>6,62; 11,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,03</t>
+          <t>-0,71; 0,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 20,46</t>
+          <t>1,91; 4,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,54</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 4,08</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 11,42</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>12,81; 20,37</t>
+          <t>7,22; 11,07</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>125,07%</t>
+          <t>152,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1340,31%</t>
+          <t>1405,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4316,34%</t>
+          <t>3995,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8185,65%</t>
+          <t>-42,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-44,66%</t>
+          <t>261,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>259,91%</t>
+          <t>839,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>844,07%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1414,98%</t>
+          <t>450,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>438,49%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1419,52%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2545,3%</t>
+          <t>1361,89%</t>
         </is>
       </c>
     </row>
@@ -1151,47 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,91; 131,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,91; 118,28</t>
+          <t>50,39; 734,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,18; 762,38</t>
+          <t>355,45; 2002,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>394,18; 2117,98</t>
+          <t>-77,94; 177,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>601,56; 3048,22</t>
+          <t>157,98; 1133,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,64; 182,39</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>163,55; 1024,6</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>672,98; 3103,23</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>1226,65; 5520,26</t>
+          <t>701,18; 3104,43</t>
         </is>
       </c>
     </row>
@@ -1213,57 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -1281,57 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,87</t>
+          <t>0,45; 6,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,25</t>
+          <t>3,53; 13,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,0</t>
+          <t>1,52; 9,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,98</t>
+          <t>3,51; 11,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,19</t>
+          <t>-1,11; 0,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 6,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,0</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 6,48</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 11,17</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>4,8; 11,06</t>
         </is>
       </c>
     </row>
@@ -1359,47 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>1065,22%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1651,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1050,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1645,79%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1570,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1586,31%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3424,37%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>3439,18%</t>
         </is>
       </c>
     </row>
@@ -1455,21 +1266,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>18,37</t>
+          <t>7,86</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 0,91</t>
+          <t>-0,07; 0,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,47</t>
+          <t>1,65; 3,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,01</t>
+          <t>6,44; 9,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,72</t>
+          <t>-1,05; 0,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,2</t>
+          <t>2,21; 4,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,35</t>
+          <t>6,42; 9,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,45</t>
+          <t>-0,38; 0,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,79; 18,44</t>
+          <t>2,19; 3,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,35</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 3,61</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 9,17</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,69; 20,3</t>
+          <t>6,77; 8,92</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>165,22%</t>
+          <t>183,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1053,55%</t>
+          <t>1096,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3665,72%</t>
+          <t>3489,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9102,69%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-43,46%</t>
+          <t>316,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>320,54%</t>
+          <t>779,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>784,99%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1608,23%</t>
+          <t>455,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>451,41%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>1299,31%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>2952,58%</t>
+          <t>1263,13%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 966,25</t>
+          <t>-46,89; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>290,09; 4480,05</t>
+          <t>288,84; 4558,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1331,96; 13119,46</t>
+          <t>1046,62; 12654,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2957,36; 30696,16</t>
+          <t>-77,82; 43,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,72; 30,92</t>
+          <t>154,44; 677,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>156,78; 668,66</t>
+          <t>473,66; 1496,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>452,45; 1419,07</t>
+          <t>-48,32; 104,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>987,85; 2931,21</t>
+          <t>254,85; 803,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 84,77</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>249,96; 878,66</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>796,16; 2134,5</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>1880,07; 4889,29</t>
+          <t>776,45; 2098,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
